--- a/tests/resources/SNAP_2020_test.xlsx
+++ b/tests/resources/SNAP_2020_test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
   <si>
     <t xml:space="preserve">White</t>
   </si>
@@ -47,6 +47,21 @@
   </si>
   <si>
     <t xml:space="preserve">ADAMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEXANDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUREAU</t>
   </si>
   <si>
     <t xml:space="preserve">Sum:</t>
@@ -357,11 +372,11 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="3:104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A103" activeCellId="0" sqref="8:103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="13.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21"/>
@@ -419,54 +434,134 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>86</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>351</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>183</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>493</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>292</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
@@ -1430,7 +1525,7 @@
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B104" s="5" t="n">
         <v>66231</v>
@@ -10432,13 +10527,13 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="3:104 B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A103" activeCellId="0" sqref="8:103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="15.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="15.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10492,54 +10587,134 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>143</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>130</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>348</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>883</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>87</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>457</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>1308</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>618</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>131</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>559</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
@@ -11502,14 +11677,30 @@
       <c r="H103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="6"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
+      <c r="A104" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="5" t="n">
+        <v>158128</v>
+      </c>
+      <c r="C104" s="5" t="n">
+        <v>101520</v>
+      </c>
+      <c r="D104" s="5" t="n">
+        <v>1455</v>
+      </c>
+      <c r="E104" s="5" t="n">
+        <v>8457</v>
+      </c>
+      <c r="F104" s="5" t="n">
+        <v>874</v>
+      </c>
+      <c r="G104" s="5" t="n">
+        <v>85738</v>
+      </c>
+      <c r="H104" s="5" t="n">
+        <v>280771</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1"/>
@@ -20489,11 +20680,11 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A104" activeCellId="0" sqref="3:104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A103" activeCellId="0" sqref="8:103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="12.88"/>
   </cols>
@@ -20549,54 +20740,134 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>559</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>547</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>1063</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>2373</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>232</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>624</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>506</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>290</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>2145</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>193</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
@@ -21559,14 +21830,26 @@
       <c r="H103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="6"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
+      <c r="A104" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="5" t="n">
+        <v>470162</v>
+      </c>
+      <c r="C104" s="5" t="n">
+        <v>397437</v>
+      </c>
+      <c r="D104" s="5" t="n">
+        <v>4214</v>
+      </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
+      <c r="G104" s="5" t="n">
+        <v>134677</v>
+      </c>
+      <c r="H104" s="5" t="n">
+        <v>123270</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1"/>
@@ -30554,11 +30837,11 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A104" activeCellId="0" sqref="3:104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A103" activeCellId="0" sqref="8:103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="16.5"/>
   </cols>
@@ -30614,54 +30897,134 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>81</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>151</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>416</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>142</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>346</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4"/>
@@ -31624,14 +31987,30 @@
       <c r="H103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="6"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
+      <c r="A104" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="5" t="n">
+        <v>86849</v>
+      </c>
+      <c r="C104" s="5" t="n">
+        <v>47145</v>
+      </c>
+      <c r="D104" s="5" t="n">
+        <v>371</v>
+      </c>
+      <c r="E104" s="5" t="n">
+        <v>17562</v>
+      </c>
+      <c r="F104" s="5" t="n">
+        <v>778</v>
+      </c>
+      <c r="G104" s="5" t="n">
+        <v>28844</v>
+      </c>
+      <c r="H104" s="5" t="n">
+        <v>15986</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1"/>
